--- a/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.8049071514890264</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8493072533143956</v>
+        <v>0.8493072533143955</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8269190097354102</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7530976868167099</v>
+        <v>0.759845794605186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8174415411084224</v>
+        <v>0.813438312236743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7988789148737905</v>
+        <v>0.7974134769428335</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8464676902054211</v>
+        <v>0.8468554788643626</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8790262535441514</v>
+        <v>0.8792003967597279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8528012010331112</v>
+        <v>0.8523858495532876</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.7220405578674151</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6674905135883177</v>
+        <v>0.6674905135883178</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6949340473805449</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6707094911840844</v>
+        <v>0.6711104754425198</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6282035185894521</v>
+        <v>0.6302355203086252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6611461344911908</v>
+        <v>0.6660295099381036</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7667200343267493</v>
+        <v>0.7670163057014139</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7044663162810454</v>
+        <v>0.7036911035915825</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.724187719768407</v>
+        <v>0.7247588676828809</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5680608589210202</v>
+        <v>0.5680608589210201</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4761205566361705</v>
+        <v>0.4761205566361704</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5198001753382329</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5084782075872505</v>
+        <v>0.5040307973266042</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4242790283516106</v>
+        <v>0.4223760971221971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4802834514935647</v>
+        <v>0.482903398867636</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6282605116635982</v>
+        <v>0.6271583369623815</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5266025196471351</v>
+        <v>0.5207802125297671</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5553249656919921</v>
+        <v>0.5585254616878116</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9348833672292863</v>
+        <v>0.9348833672292864</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9213661964708603</v>
+        <v>0.9213661964708602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9275931341985092</v>
+        <v>0.927593134198509</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8910514358244196</v>
+        <v>0.8885296471318587</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8869555495702588</v>
+        <v>0.8900792241039158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9006107030074044</v>
+        <v>0.9025513652153684</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9639358252904952</v>
+        <v>0.9611795696216572</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9453833884253627</v>
+        <v>0.9447785533758285</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9462784797904211</v>
+        <v>0.9483850536270183</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2662122717600741</v>
+        <v>0.2681733670378399</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1714279391735072</v>
+        <v>0.1752414945647302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2319729292004949</v>
+        <v>0.2335656185603625</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3884050574662306</v>
+        <v>0.3863220080563485</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2552618162595522</v>
+        <v>0.2554434645137775</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3065159657602942</v>
+        <v>0.3053500687884922</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7808553729441589</v>
+        <v>0.7808553729441587</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7832094438404589</v>
+        <v>0.783209443840459</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7819946535123051</v>
+        <v>0.7819946535123052</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7339326587253191</v>
+        <v>0.7293479955079586</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7393466800859062</v>
+        <v>0.7373007503807064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7490578720971568</v>
+        <v>0.7457169478278339</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8224766619522356</v>
+        <v>0.8268365598911414</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8265627594937086</v>
+        <v>0.826157300994531</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8163267452848781</v>
+        <v>0.8137320412609396</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.4639246348914438</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4454735247204238</v>
+        <v>0.4454735247204237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4544656684860973</v>
+        <v>0.4544656684860974</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4191256083510886</v>
+        <v>0.4204105914627133</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4088882457342985</v>
+        <v>0.4086670026927423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4233963315637499</v>
+        <v>0.4277501558228578</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5094986304607699</v>
+        <v>0.5095905002688665</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4801102844424068</v>
+        <v>0.4843661935524002</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4825067781363761</v>
+        <v>0.4844217905786202</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9296741566944221</v>
+        <v>0.9296741566944223</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.9222698618492859</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9258514027736418</v>
+        <v>0.9258514027736416</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9067284391420797</v>
+        <v>0.9057169021243532</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9032039888841531</v>
+        <v>0.9006149506526548</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9111020210384492</v>
+        <v>0.9103389382225612</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9495809184489257</v>
+        <v>0.9488000295150504</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9406196382826093</v>
+        <v>0.9375785763017376</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9386615421530115</v>
+        <v>0.9385557898172745</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.70851186009955</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.6815887048239775</v>
+        <v>0.6815887048239776</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.6947354248523753</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6911009577488303</v>
+        <v>0.6916231463110815</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6675550251006589</v>
+        <v>0.6660591081245371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.683884451604032</v>
+        <v>0.6838369884916855</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.726895837210774</v>
+        <v>0.7234953790210171</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6956123541035906</v>
+        <v>0.6944192697372971</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7057280274815497</v>
+        <v>0.7063980821223164</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>238729</v>
+        <v>240868</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>254770</v>
+        <v>253522</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>502225</v>
+        <v>501304</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>268327</v>
+        <v>268450</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>273963</v>
+        <v>274018</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>536124</v>
+        <v>535863</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>347330</v>
+        <v>347538</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>321324</v>
+        <v>322363</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>680551</v>
+        <v>685578</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>397050</v>
+        <v>397203</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>360332</v>
+        <v>359935</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>745443</v>
+        <v>746031</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>136661</v>
+        <v>135465</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>125991</v>
+        <v>125425</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>271704</v>
+        <v>273186</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>168854</v>
+        <v>168558</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156376</v>
+        <v>154647</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>314156</v>
+        <v>315967</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>249446</v>
+        <v>248740</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>290699</v>
+        <v>291723</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>547298</v>
+        <v>548477</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>269850</v>
+        <v>269078</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>309848</v>
+        <v>309650</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>575050</v>
+        <v>576330</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54122</v>
+        <v>54521</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38492</v>
+        <v>39348</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>99247</v>
+        <v>99928</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>78964</v>
+        <v>78541</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57315</v>
+        <v>57356</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>131139</v>
+        <v>130641</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>174779</v>
+        <v>173688</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>165124</v>
+        <v>164667</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>345674</v>
+        <v>344133</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>195865</v>
+        <v>196904</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>184603</v>
+        <v>184512</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>376718</v>
+        <v>375520</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>278398</v>
+        <v>279252</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>285698</v>
+        <v>285543</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>577070</v>
+        <v>583004</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>338427</v>
+        <v>338488</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>335462</v>
+        <v>338436</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>657635</v>
+        <v>660245</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>653504</v>
+        <v>652775</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>694805</v>
+        <v>692813</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1357536</v>
+        <v>1356399</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>684389</v>
+        <v>683826</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>723588</v>
+        <v>721248</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1398599</v>
+        <v>1398442</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2218413</v>
+        <v>2220089</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2245470</v>
+        <v>2240438</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>4495646</v>
+        <v>4495334</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2333313</v>
+        <v>2322398</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2339847</v>
+        <v>2335834</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4639239</v>
+        <v>4643643</v>
       </c>
     </row>
     <row r="40">
